--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\UiPath\Academy Examples\Level 3 Advanced\ReFrameWork-Calculate Client Security Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC295B1C-62AC-4EDF-BD62-66A095AF3368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418A0D7-D581-4230-B0DA-D31112A99D6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13665" yWindow="930" windowWidth="14625" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\UiPath\Academy Examples\Level 3 Advanced\ReFrameWork-Calculate Client Security Hash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\UiPath\Academy Examples\Level 3 Advanced\ReFrameWork-Generate Yearly Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418A0D7-D581-4230-B0DA-D31112A99D6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AAB39-0414-42B8-9E8E-BFFC235532AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13665" yWindow="930" windowWidth="14625" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="1455" windowWidth="14625" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,30 @@
   </si>
   <si>
     <t>System1_URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_URL_Download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month_Report_Save_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\root\Documents\UiPath\Academy Examples\Level 3 Advanced\ReFrameWork-Generate Yearly Report\Data\Temp\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_YearlyUpload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +609,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -684,9 +708,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1679,9 +1724,11 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{B01FC5C8-0304-4FB6-9122-3DCD4353C21B}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{9266EFD4-B4AB-4E5B-9BAF-3A4A2BECD854}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{75FD8F11-1364-4178-B703-3BDA35CAE6EB}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{5C7C0826-2C14-4A8F-A311-E3A3FB6AEA4A}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{AD692636-6655-4578-A8CF-0A3D1D9F2459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\UiPath\Academy Examples\Level 3 Advanced\ReFrameWork-Generate Yearly Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AAB39-0414-42B8-9E8E-BFFC235532AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23D25B-6825-41EE-83F6-6F58621C3392}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="1455" windowWidth="14625" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>System1_WorkItems_Queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/reports/upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_Queue_UploadYearlyReport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +609,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -656,10 +656,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
@@ -702,34 +702,34 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
